--- a/frais_malaoui_taoufik.xlsx
+++ b/frais_malaoui_taoufik.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\malaoui\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\malaoui\fichiers-perso\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
   <si>
     <t>prix</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t xml:space="preserve">Date traite </t>
+  </si>
+  <si>
+    <t>ffffff</t>
+  </si>
+  <si>
+    <t>fffff</t>
+  </si>
+  <si>
+    <t>ffff</t>
   </si>
 </sst>
 </file>
@@ -393,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,9 +419,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,6 +432,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,104 +738,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44372</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>250</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>44348</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>500</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>44348</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1600</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>44348</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>200</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>44348</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>300</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -993,15 +1002,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19">
         <f>SUM(C2:C10)</f>
         <v>74500</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1024,333 +1033,333 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17">
+      <c r="B3" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15">
         <v>44404</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>300</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15">
         <v>44404</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
+      <c r="B4" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
         <v>44435</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>300</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17">
+      <c r="H4" s="14"/>
+      <c r="I4" s="15">
         <v>44435</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17">
+      <c r="B5" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15">
         <v>44466</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>300</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17">
+      <c r="H5" s="14"/>
+      <c r="I5" s="15">
         <v>44466</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
+      <c r="B6" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
         <v>44496</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>300</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17">
+      <c r="H6" s="14"/>
+      <c r="I6" s="15">
         <v>44496</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
+      <c r="B7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
         <v>44527</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>300</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15">
         <v>44527</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17">
+      <c r="B8" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
         <v>44557</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>300</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15">
         <v>44557</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17">
+      <c r="B9" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15">
         <v>44588</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="14">
         <v>300</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15">
         <v>44588</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
+      <c r="B10" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15">
         <v>44619</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>300</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17">
+      <c r="H10" s="14"/>
+      <c r="I10" s="15">
         <v>44619</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17">
+      <c r="B11" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15">
         <v>44647</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>300</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17">
+      <c r="H11" s="14"/>
+      <c r="I11" s="15">
         <v>44647</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
+      <c r="B12" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15">
         <v>44678</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>300</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15">
         <v>44678</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17">
+      <c r="B13" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>44708</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <f>SUM(G3:G12)</f>
         <v>3000</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="16">
-        <v>1500</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
+      <c r="B14" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15">
         <v>44739</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f>SUM(B3:B14)</f>
         <v>18000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>12000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>6000</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1367,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1397,221 +1406,265 @@
       <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1000</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7">
+      <c r="I3" s="7"/>
+      <c r="J3" s="6">
         <v>44223</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1000</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="7"/>
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>44254</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1000</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="F5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7">
+      <c r="I5" s="7"/>
+      <c r="J5" s="6">
         <v>44282</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1000</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="F6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7">
+      <c r="I6" s="7"/>
+      <c r="J6" s="6">
         <v>44313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>1000</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7">
+      <c r="I7" s="7"/>
+      <c r="J7" s="6">
         <v>44343</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>1000</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="20"/>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="9">
-        <v>1500</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7">
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
         <v>44374</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>1000</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="20"/>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <f>SUM(G3:G8)</f>
         <v>9000</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>7000</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/frais_malaoui_taoufik.xlsx
+++ b/frais_malaoui_taoufik.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>prix</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>ffff</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1382,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,19 +1655,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
